--- a/Code/Results/Cases/Case_2_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.12521615656173</v>
+        <v>18.9121931838217</v>
       </c>
       <c r="C2">
-        <v>21.32787853891193</v>
+        <v>12.34640956779365</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.297702218365647</v>
+        <v>8.756277909191052</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.039048175391404</v>
+        <v>3.656891805107822</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.12588193138663</v>
+        <v>17.41717923140264</v>
       </c>
       <c r="N2">
-        <v>14.34118855872601</v>
+        <v>19.42627392539891</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.01782312317444</v>
+        <v>18.24879208153726</v>
       </c>
       <c r="C3">
-        <v>19.71386823615021</v>
+        <v>11.69671181289096</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.834123598266182</v>
+        <v>8.687858789081785</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.05507026577245</v>
+        <v>3.661939652360079</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.55567768796301</v>
+        <v>17.11579293226805</v>
       </c>
       <c r="N3">
-        <v>14.39137311374263</v>
+        <v>19.44308809132055</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.67143221407569</v>
+        <v>17.83599702696912</v>
       </c>
       <c r="C4">
-        <v>18.68314934293043</v>
+        <v>11.28308748417974</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.547517029414043</v>
+        <v>8.648215431188286</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.065004145177207</v>
+        <v>3.665190886140009</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.55143265563919</v>
+        <v>16.93413442997562</v>
       </c>
       <c r="N4">
-        <v>14.43040927058942</v>
+        <v>19.45521492394014</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.10911012517472</v>
+        <v>17.66670192201009</v>
       </c>
       <c r="C5">
-        <v>18.25271270322473</v>
+        <v>11.11106085932785</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.430252574416703</v>
+        <v>8.6326671279389</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.069084087415955</v>
+        <v>3.666554154286691</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.13169559129252</v>
+        <v>16.86105953337376</v>
       </c>
       <c r="N5">
-        <v>14.44820768020451</v>
+        <v>19.46060714656365</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.01489977212622</v>
+        <v>17.63853460824417</v>
       </c>
       <c r="C6">
-        <v>18.18059882441286</v>
+        <v>11.08229370246858</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.410753980555127</v>
+        <v>8.630122303149692</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.069763684857635</v>
+        <v>3.666782846391271</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.06135335613271</v>
+        <v>16.84898588728733</v>
       </c>
       <c r="N6">
-        <v>14.45127251593054</v>
+        <v>19.46152964116835</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.66390440664442</v>
+        <v>17.83371780951926</v>
       </c>
       <c r="C7">
-        <v>18.67738699929305</v>
+        <v>11.28078120012019</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.545937401951722</v>
+        <v>8.648003270363136</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323726</v>
       </c>
       <c r="G7">
-        <v>2.065059030534501</v>
+        <v>3.665209116071689</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.54581495257564</v>
+        <v>16.93314493039694</v>
       </c>
       <c r="N7">
-        <v>14.43064186879143</v>
+        <v>19.45528582535858</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.40916534531143</v>
+        <v>18.68475708459954</v>
       </c>
       <c r="C8">
-        <v>20.77933661265087</v>
+        <v>12.12557085064179</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.138271021733839</v>
+        <v>8.73220325179908</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344765</v>
       </c>
       <c r="G8">
-        <v>2.044557496223859</v>
+        <v>3.658600900499493</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.59254561223699</v>
+        <v>17.3126166274171</v>
       </c>
       <c r="N8">
-        <v>14.3566723970372</v>
+        <v>19.43169551790614</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.40206949368027</v>
+        <v>20.29847568355802</v>
       </c>
       <c r="C9">
-        <v>24.60861855915044</v>
+        <v>13.65734612049512</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.290870859972076</v>
+        <v>8.915525429658295</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.004715975370993</v>
+        <v>3.646838540665698</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>24.30888545515093</v>
+        <v>18.07929436428209</v>
       </c>
       <c r="N9">
-        <v>14.28610346631449</v>
+        <v>19.39987087663204</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.87600601515158</v>
+        <v>21.43634686166046</v>
       </c>
       <c r="C10">
-        <v>27.28128662755915</v>
+        <v>14.69786400678308</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.29616973950203</v>
+        <v>9.060477267181149</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>1.974987696725536</v>
+        <v>3.638914230573155</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.89307782476622</v>
+        <v>18.65044584772389</v>
       </c>
       <c r="N10">
-        <v>14.29497157826612</v>
+        <v>19.38547078382291</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.4269060752241</v>
+        <v>21.9411339027916</v>
       </c>
       <c r="C11">
-        <v>28.47743129731498</v>
+        <v>15.151458341835</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.74576277652736</v>
+        <v>9.128452261557092</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>1.961168438931941</v>
+        <v>3.635462504794867</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28.04688951180848</v>
+        <v>18.91077429892627</v>
       </c>
       <c r="N11">
-        <v>14.31650240199208</v>
+        <v>19.38090887972621</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.01132857636468</v>
+        <v>22.13026070063614</v>
       </c>
       <c r="C12">
-        <v>28.92871276163402</v>
+        <v>15.3202996216253</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.91532434479458</v>
+        <v>9.154467758944262</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>1.955871812208909</v>
+        <v>3.634177239727851</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.48173751807154</v>
+        <v>19.00932965807766</v>
       </c>
       <c r="N12">
-        <v>14.32762507378657</v>
+        <v>19.37947053385219</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.88556522701461</v>
+        <v>22.08962155460694</v>
       </c>
       <c r="C13">
-        <v>28.83157425673222</v>
+        <v>15.28406791555345</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.87882914355001</v>
+        <v>9.148852922724119</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>1.957015752817619</v>
+        <v>3.634453076667812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.38815813640523</v>
+        <v>18.98810665505182</v>
       </c>
       <c r="N13">
-        <v>14.32508928293503</v>
+        <v>19.37976739702787</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.47503544280555</v>
+        <v>21.95673501488614</v>
       </c>
       <c r="C14">
-        <v>28.51458442428587</v>
+        <v>15.16540807091108</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.75972377208098</v>
+        <v>9.130587168233978</v>
       </c>
       <c r="F14">
-        <v>39.19167637503958</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>1.960734094934166</v>
+        <v>3.635356328846998</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>28.08269941980955</v>
+        <v>18.91888356710977</v>
       </c>
       <c r="N14">
-        <v>14.31735501965393</v>
+        <v>19.38078473308656</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.22324616260346</v>
+        <v>21.87506949114448</v>
       </c>
       <c r="C15">
-        <v>28.32024007590989</v>
+        <v>15.09234229722654</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.68669261872252</v>
+        <v>9.119434118945845</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>1.96300269786303</v>
+        <v>3.635912434123365</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.89536218192822</v>
+        <v>18.87647626228678</v>
       </c>
       <c r="N15">
-        <v>14.31301934511438</v>
+        <v>19.38144563024392</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.7741684824618</v>
+        <v>21.40308372465647</v>
       </c>
       <c r="C16">
-        <v>27.20281290531791</v>
+        <v>14.6678155238527</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.26666627139816</v>
+        <v>9.056074388077434</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>1.975883176625184</v>
+        <v>3.639142873624146</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.81732054533529</v>
+        <v>18.63343450162986</v>
       </c>
       <c r="N16">
-        <v>14.29395324105668</v>
+        <v>19.38580920483806</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.87854740619466</v>
+        <v>21.11011360149297</v>
       </c>
       <c r="C17">
-        <v>26.51301378565896</v>
+        <v>14.40225870374065</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.00728726882478</v>
+        <v>9.017714084909086</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>1.983695674685836</v>
+        <v>3.641163720649094</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26.15108451636354</v>
+        <v>18.48439530542678</v>
       </c>
       <c r="N17">
-        <v>14.28703272041039</v>
+        <v>19.3889977422325</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.36054444738333</v>
+        <v>20.94040601583887</v>
       </c>
       <c r="C18">
-        <v>26.1143261837477</v>
+        <v>14.24766312879027</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.857342555992819</v>
+        <v>8.995842970908404</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>1.988162887491323</v>
+        <v>3.642340478342527</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.76576116546192</v>
+        <v>18.39872547301521</v>
       </c>
       <c r="N18">
-        <v>14.28466718202061</v>
+        <v>19.39101870829849</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.18462884809274</v>
+        <v>20.88274584595861</v>
       </c>
       <c r="C19">
-        <v>25.9789742648319</v>
+        <v>14.19500415366716</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.806432512188834</v>
+        <v>8.988471422806011</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>1.989671452237505</v>
+        <v>3.642741390523879</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.63490444571077</v>
+        <v>18.36973140295206</v>
       </c>
       <c r="N19">
-        <v>14.28413126636887</v>
+        <v>19.39173499411124</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.97417548281421</v>
+        <v>21.14142622198334</v>
       </c>
       <c r="C20">
-        <v>26.58663663467729</v>
+        <v>14.43072027361571</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.03497417309488</v>
+        <v>9.02177778694606</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>1.982866883168978</v>
+        <v>3.640947106960604</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26.22221921114702</v>
+        <v>18.50025596347207</v>
       </c>
       <c r="N20">
-        <v>14.28759928653833</v>
+        <v>19.38863893987658</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.59568343733861</v>
+        <v>21.99582329580224</v>
       </c>
       <c r="C21">
-        <v>28.60772684954614</v>
+        <v>15.20034133096889</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.79472278489384</v>
+        <v>9.135944949087179</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>1.959643845933181</v>
+        <v>3.635090430838484</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>28.17246678126434</v>
+        <v>18.93921752118038</v>
       </c>
       <c r="N21">
-        <v>14.31954207991893</v>
+        <v>19.38047804421615</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.29314748043635</v>
+        <v>22.54234901436459</v>
       </c>
       <c r="C22">
-        <v>29.91962813317471</v>
+        <v>15.68625522592638</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.28751464380755</v>
+        <v>9.212153145865789</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>1.94408195817547</v>
+        <v>3.631389901959848</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>29.43564860734719</v>
+        <v>19.22591345602278</v>
       </c>
       <c r="N22">
-        <v>14.35801189015004</v>
+        <v>19.37683126869762</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.38809011128233</v>
+        <v>22.25179800696877</v>
       </c>
       <c r="C23">
-        <v>29.21980753411671</v>
+        <v>15.42850065509525</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.02467932811157</v>
+        <v>9.171339641724687</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>1.952431147498269</v>
+        <v>3.633353370988152</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.76209428027438</v>
+        <v>19.07294744673715</v>
       </c>
       <c r="N23">
-        <v>14.33569372133953</v>
+        <v>19.37862223084309</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.93095177865706</v>
+        <v>21.12727374426466</v>
       </c>
       <c r="C24">
-        <v>26.55335840931584</v>
+        <v>14.4178587821973</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.02245952153939</v>
+        <v>9.019940016725384</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>1.983241653971827</v>
+        <v>3.641044991442102</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>26.19006644134627</v>
+        <v>18.49308530639456</v>
       </c>
       <c r="N24">
-        <v>14.28733815029595</v>
+        <v>19.38880056960234</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.08915111836942</v>
+        <v>19.8693779137467</v>
       </c>
       <c r="C25">
-        <v>23.60053874413664</v>
+        <v>13.25733804060465</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.976277031175609</v>
+        <v>8.86406509525667</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.01551789949345</v>
+        <v>3.649893715457007</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>23.33208364785473</v>
+        <v>17.87008519394276</v>
       </c>
       <c r="N25">
-        <v>14.29579508924824</v>
+        <v>19.40691610649025</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.9121931838217</v>
+        <v>28.12521615656186</v>
       </c>
       <c r="C2">
-        <v>12.34640956779365</v>
+        <v>21.32787853891196</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.756277909191052</v>
+        <v>8.297702218365686</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.656891805107822</v>
+        <v>2.039048175391533</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.41717923140264</v>
+        <v>21.12588193138668</v>
       </c>
       <c r="N2">
-        <v>19.42627392539891</v>
+        <v>14.341188558726</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.24879208153726</v>
+        <v>26.01782312317444</v>
       </c>
       <c r="C3">
-        <v>11.69671181289096</v>
+        <v>19.71386823615024</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.687858789081785</v>
+        <v>7.834123598266157</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.661939652360079</v>
+        <v>2.055070265772716</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.11579293226805</v>
+        <v>19.55567768796297</v>
       </c>
       <c r="N3">
-        <v>19.44308809132055</v>
+        <v>14.39137311374258</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.83599702696912</v>
+        <v>24.67143221407573</v>
       </c>
       <c r="C4">
-        <v>11.28308748417974</v>
+        <v>18.68314934293052</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.648215431188286</v>
+        <v>7.547517029414095</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.665190886140009</v>
+        <v>2.065004145177209</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.93413442997562</v>
+        <v>18.55143265563923</v>
       </c>
       <c r="N4">
-        <v>19.45521492394014</v>
+        <v>14.43040927058935</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.66670192201009</v>
+        <v>24.1091101251746</v>
       </c>
       <c r="C5">
-        <v>11.11106085932785</v>
+        <v>18.25271270322472</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.6326671279389</v>
+        <v>7.430252574416661</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.666554154286691</v>
+        <v>2.069084087416226</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.86105953337376</v>
+        <v>18.13169559129248</v>
       </c>
       <c r="N5">
-        <v>19.46060714656365</v>
+        <v>14.44820768020457</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.63853460824417</v>
+        <v>24.01489977212611</v>
       </c>
       <c r="C6">
-        <v>11.08229370246858</v>
+        <v>18.18059882441277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.630122303149692</v>
+        <v>7.410753980555124</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.666782846391271</v>
+        <v>2.069763684857639</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.84898588728733</v>
+        <v>18.0613533561326</v>
       </c>
       <c r="N6">
-        <v>19.46152964116835</v>
+        <v>14.4512725159307</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.83371780951926</v>
+        <v>24.66390440664438</v>
       </c>
       <c r="C7">
-        <v>11.28078120012019</v>
+        <v>18.67738699929289</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.648003270363136</v>
+        <v>7.545937401951637</v>
       </c>
       <c r="F7">
-        <v>15.26647399323726</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.665209116071689</v>
+        <v>2.065059030534495</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.93314493039694</v>
+        <v>18.5458149525756</v>
       </c>
       <c r="N7">
-        <v>19.45528582535858</v>
+        <v>14.43064186879145</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.68475708459954</v>
+        <v>27.40916534531148</v>
       </c>
       <c r="C8">
-        <v>12.12557085064179</v>
+        <v>20.77933661265093</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.73220325179908</v>
+        <v>8.13827102173385</v>
       </c>
       <c r="F8">
-        <v>16.53996406344765</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.658600900499493</v>
+        <v>2.044557496223859</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.3126166274171</v>
+        <v>20.59254561223701</v>
       </c>
       <c r="N8">
-        <v>19.43169551790614</v>
+        <v>14.35667239703715</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.29847568355802</v>
+        <v>32.40206949368061</v>
       </c>
       <c r="C9">
-        <v>13.65734612049512</v>
+        <v>24.60861855915062</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.915525429658295</v>
+        <v>9.290870859972017</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.646838540665698</v>
+        <v>2.004715975370999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.07929436428209</v>
+        <v>24.30888545515109</v>
       </c>
       <c r="N9">
-        <v>19.39987087663204</v>
+        <v>14.28610346631435</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.43634686166046</v>
+        <v>35.87600601515163</v>
       </c>
       <c r="C10">
-        <v>14.69786400678308</v>
+        <v>27.28128662755928</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.060477267181149</v>
+        <v>10.296169739502</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847366</v>
       </c>
       <c r="G10">
-        <v>3.638914230573155</v>
+        <v>1.974987696725661</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.65044584772389</v>
+        <v>26.89307782476628</v>
       </c>
       <c r="N10">
-        <v>19.38547078382291</v>
+        <v>14.29497157826614</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.9411339027916</v>
+        <v>37.4269060752243</v>
       </c>
       <c r="C11">
-        <v>15.151458341835</v>
+        <v>28.47743129731514</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.128452261557092</v>
+        <v>10.74576277652741</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232862</v>
       </c>
       <c r="G11">
-        <v>3.635462504794867</v>
+        <v>1.961168438932076</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.91077429892627</v>
+        <v>28.04688951180862</v>
       </c>
       <c r="N11">
-        <v>19.38090887972621</v>
+        <v>14.31650240199202</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.13026070063614</v>
+        <v>38.0113285763647</v>
       </c>
       <c r="C12">
-        <v>15.3202996216253</v>
+        <v>28.92871276163403</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.154467758944262</v>
+        <v>10.91532434479448</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.634177239727851</v>
+        <v>1.955871812209043</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.00932965807766</v>
+        <v>28.48173751807152</v>
       </c>
       <c r="N12">
-        <v>19.37947053385219</v>
+        <v>14.32762507378654</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.08962155460694</v>
+        <v>37.88556522701462</v>
       </c>
       <c r="C13">
-        <v>15.28406791555345</v>
+        <v>28.83157425673215</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.148852922724119</v>
+        <v>10.87882914355002</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.634453076667812</v>
+        <v>1.957015752817753</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.98810665505182</v>
+        <v>28.38815813640528</v>
       </c>
       <c r="N13">
-        <v>19.37976739702787</v>
+        <v>14.32508928293503</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.95673501488614</v>
+        <v>37.47503544280556</v>
       </c>
       <c r="C14">
-        <v>15.16540807091108</v>
+        <v>28.51458442428595</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.130587168233978</v>
+        <v>10.75972377208086</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.635356328846998</v>
+        <v>1.960734094934297</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.91888356710977</v>
+        <v>28.0826994198095</v>
       </c>
       <c r="N14">
-        <v>19.38078473308656</v>
+        <v>14.31735501965396</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.87506949114448</v>
+        <v>37.22324616260359</v>
       </c>
       <c r="C15">
-        <v>15.09234229722654</v>
+        <v>28.32024007590982</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.119434118945845</v>
+        <v>10.68669261872252</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.635912434123365</v>
+        <v>1.963002697862499</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.87647626228678</v>
+        <v>27.89536218192825</v>
       </c>
       <c r="N15">
-        <v>19.38144563024392</v>
+        <v>14.31301934511437</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.40308372465647</v>
+        <v>35.77416848246182</v>
       </c>
       <c r="C16">
-        <v>14.6678155238527</v>
+        <v>27.20281290531795</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.056074388077434</v>
+        <v>10.26666627139822</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.639142873624146</v>
+        <v>1.975883176625319</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.63343450162986</v>
+        <v>26.81732054533533</v>
       </c>
       <c r="N16">
-        <v>19.38580920483806</v>
+        <v>14.29395324105665</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.11011360149297</v>
+        <v>34.87854740619451</v>
       </c>
       <c r="C17">
-        <v>14.40225870374065</v>
+        <v>26.51301378565885</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.017714084909086</v>
+        <v>10.00728726882481</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.641163720649094</v>
+        <v>1.983695674685698</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.48439530542678</v>
+        <v>26.1510845163634</v>
       </c>
       <c r="N17">
-        <v>19.3889977422325</v>
+        <v>14.28703272041041</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.94040601583887</v>
+        <v>34.3605444473833</v>
       </c>
       <c r="C18">
-        <v>14.24766312879027</v>
+        <v>26.11432618374758</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.995842970908404</v>
+        <v>9.857342555992842</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.642340478342527</v>
+        <v>1.988162887491062</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.39872547301521</v>
+        <v>25.7657611654619</v>
       </c>
       <c r="N18">
-        <v>19.39101870829849</v>
+        <v>14.2846671820207</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.88274584595861</v>
+        <v>34.18462884809259</v>
       </c>
       <c r="C19">
-        <v>14.19500415366716</v>
+        <v>25.97897426483184</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.988471422806011</v>
+        <v>9.806432512188819</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>3.642741390523879</v>
+        <v>1.989671452237238</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.36973140295206</v>
+        <v>25.63490444571068</v>
       </c>
       <c r="N19">
-        <v>19.39173499411124</v>
+        <v>14.28413126636892</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.14142622198334</v>
+        <v>34.97417548281415</v>
       </c>
       <c r="C20">
-        <v>14.43072027361571</v>
+        <v>26.58663663467722</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.02177778694606</v>
+        <v>10.03497417309493</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.640947106960604</v>
+        <v>1.982866883168975</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.50025596347207</v>
+        <v>26.22221921114697</v>
       </c>
       <c r="N20">
-        <v>19.38863893987658</v>
+        <v>14.2875992865383</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.99582329580224</v>
+        <v>37.59568343733871</v>
       </c>
       <c r="C21">
-        <v>15.20034133096889</v>
+        <v>28.60772684954624</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.135944949087179</v>
+        <v>10.79472278489391</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.635090430838484</v>
+        <v>1.959643845933702</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.93921752118038</v>
+        <v>28.17246678126446</v>
       </c>
       <c r="N21">
-        <v>19.38047804421615</v>
+        <v>14.31954207991891</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.54234901436459</v>
+        <v>39.29314748043657</v>
       </c>
       <c r="C22">
-        <v>15.68625522592638</v>
+        <v>29.9196281331746</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.212153145865789</v>
+        <v>11.28751464380752</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.631389901959848</v>
+        <v>1.944081958175339</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.22591345602278</v>
+        <v>29.43564860734723</v>
       </c>
       <c r="N22">
-        <v>19.37683126869762</v>
+        <v>14.35801189015009</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.25179800696877</v>
+        <v>38.38809011128217</v>
       </c>
       <c r="C23">
-        <v>15.42850065509525</v>
+        <v>29.21980753411659</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.171339641724687</v>
+        <v>11.02467932811156</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.633353370988152</v>
+        <v>1.952431147498266</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.07294744673715</v>
+        <v>28.76209428027429</v>
       </c>
       <c r="N23">
-        <v>19.37862223084309</v>
+        <v>14.3356937213395</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12727374426466</v>
+        <v>34.93095177865702</v>
       </c>
       <c r="C24">
-        <v>14.4178587821973</v>
+        <v>26.5533584093159</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.019940016725384</v>
+        <v>10.02245952153939</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>3.641044991442102</v>
+        <v>1.983241653971965</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.49308530639456</v>
+        <v>26.19006644134627</v>
       </c>
       <c r="N24">
-        <v>19.38880056960234</v>
+        <v>14.28733815029595</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.8693779137467</v>
+        <v>31.08915111836944</v>
       </c>
       <c r="C25">
-        <v>13.25733804060465</v>
+        <v>23.60053874413683</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.86406509525667</v>
+        <v>8.976277031175618</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127051</v>
       </c>
       <c r="G25">
-        <v>3.649893715457007</v>
+        <v>2.015517899493176</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.87008519394276</v>
+        <v>23.33208364785476</v>
       </c>
       <c r="N25">
-        <v>19.40691610649025</v>
+        <v>14.29579508924818</v>
       </c>
       <c r="O25">
         <v>0</v>
